--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\lachouette\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251A1B59-2DA4-4892-87DC-C82436648178}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFF9C72-143D-4BD8-BDA5-6FC5386E198B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>Catégorie</t>
   </si>
@@ -45,29 +45,210 @@
     <t>Référence</t>
   </si>
   <si>
-    <t>(SEO ou accessiblité ?)</t>
-  </si>
-  <si>
     <t>lignes doublées</t>
   </si>
   <si>
-    <t>ordre balise hX non respecté</t>
-  </si>
-  <si>
-    <t>Langue a defaut</t>
-  </si>
-  <si>
-    <t>Désigner une région</t>
-  </si>
-  <si>
-    <t>w3c</t>
+    <t>SEO</t>
+  </si>
+  <si>
+    <t>class non existante</t>
+  </si>
+  <si>
+    <t>problème de responsive</t>
+  </si>
+  <si>
+    <t>Pas de titre de page</t>
+  </si>
+  <si>
+    <t>Supprimer les doublons et les lignes invisibles</t>
+  </si>
+  <si>
+    <t>ajout de script non util</t>
+  </si>
+  <si>
+    <t>Liens non fonctionnels</t>
+  </si>
+  <si>
+    <t>Emplacement</t>
+  </si>
+  <si>
+    <t>index / 2</t>
+  </si>
+  <si>
+    <t>https://optimiz.me/la-balise-meta-keywords/
+https://www.definitions-seo.com/definition-de-balise-meta-keywords/</t>
+  </si>
+  <si>
+    <t>Ne pas utiliser la balise</t>
+  </si>
+  <si>
+    <t>la langue n'est pas spécifiée</t>
+  </si>
+  <si>
+    <t>Utiliser la langue correspond au site</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/International/questions/qa-html-language-declarations.fr</t>
+  </si>
+  <si>
+    <t>index / 5</t>
+  </si>
+  <si>
+    <t>index / 6</t>
+  </si>
+  <si>
+    <t>Le champ content n'est pas renseigné</t>
+  </si>
+  <si>
+    <t>Faire un résume du site en 300 caractères maximum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renseigner le champ content </t>
+  </si>
+  <si>
+    <t>https://www.definitions-seo.com/definition-de-balise-meta-description/</t>
+  </si>
+  <si>
+    <t>index / 19-20</t>
+  </si>
+  <si>
+    <t>des fichiers javascript chargés pour rien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les fichiers javascript sont chargés alors qu'ils ne sont pas utilisés, causant un ralentissement des pages </t>
+  </si>
+  <si>
+    <t>Ne charger que les fichiers utiles au fonctionnement des pages</t>
+  </si>
+  <si>
+    <t>Supprimer l'appel des fichiers non utile</t>
+  </si>
+  <si>
+    <t>index / 22</t>
+  </si>
+  <si>
+    <t>https://www.referenseo.com/guide-seo/balise-title/</t>
+  </si>
+  <si>
+    <t>les balises title sont importantes pour le référencement, elle précise le contenu de la page</t>
+  </si>
+  <si>
+    <t>Renseigner la balises avec les bons mots clés</t>
+  </si>
+  <si>
+    <t>Renseigner la balise</t>
+  </si>
+  <si>
+    <t>index / 40 - 42</t>
+  </si>
+  <si>
+    <t>La duplication de ligne et les lignes (invisibles) finissent par être détectées par le robot et de nuire au référencement</t>
+  </si>
+  <si>
+    <t>https://www.matthieu-tranvan.fr/referencement-naturel/checklist-seo-25-bonnes-pratiques-on-site-pour-renforcer-votre-referencement-naturel.html</t>
+  </si>
+  <si>
+    <t>index / 55</t>
+  </si>
+  <si>
+    <t>Accessibilité / SEO</t>
+  </si>
+  <si>
+    <t>Accessibilité</t>
+  </si>
+  <si>
+    <t>Le nom de la page n'est pas cohérent</t>
+  </si>
+  <si>
+    <t>Langue a défaut</t>
+  </si>
+  <si>
+    <t>Remplacer défaut par Fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balise obsolète </t>
+  </si>
+  <si>
+    <t>La balise est obsolète et n'a plus aucune utilité pour le référencement</t>
+  </si>
+  <si>
+    <t>Supprimer la balise de l'entête</t>
+  </si>
+  <si>
+    <t>Si le champ n'est pas renseigné, il ne permet pas d'avoir un résumé du site lors d'une recherche dans un moteur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simplifier au maximum en mettant uniquement les informations les plus pertinentes </t>
+  </si>
+  <si>
+    <t>déplacer ou renommer les hx pour respecter l'ordre</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/search/docs/beginner/seo-starter-guide?hl=fr#navigation-is-important-for-search-engines</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>Avoir des noms de page et lien avec aucune correspondance de son contenu, peut nuire dans le référencement, car le moteur peut mal interprèter le contenu en se basant sur le nom de la page</t>
+  </si>
+  <si>
+    <t>Avoir une bonne structure de site en respectant au mieu le nom des pages / liens en fonction de leur contenu</t>
+  </si>
+  <si>
+    <t>Renomer la page et les liens en contact.html</t>
+  </si>
+  <si>
+    <t>https://sitechecker.pro/fr/</t>
+  </si>
+  <si>
+    <t>https://neilpatel.com/fr/analyseur-seo/</t>
+  </si>
+  <si>
+    <t>https://search.google.com/search-console/about?hl=fr</t>
+  </si>
+  <si>
+    <t>https://website.grader.com/fr/</t>
+  </si>
+  <si>
+    <t>https://www.seo.fr/outils-seo/screaming-frog</t>
+  </si>
+  <si>
+    <t>crawler</t>
+  </si>
+  <si>
+    <t>ordre et utilisation des balises hn non respecté</t>
+  </si>
+  <si>
+    <t>Les balises ne sont pas dans l'ordre ce qui peut gêner le référencement, elles permettent une structure de la page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un seul h1 par page avec le/les mots clés principaux du site, il faut pour les autres niveaux, bien respecter l'ordre </t>
+  </si>
+  <si>
+    <t>https://semji.com/fr/blog/quel-est-linteret-des-balises-h1-h2-h3-pour-votre-seo/</t>
+  </si>
+  <si>
+    <t>Utilisation d'image au format unique et pas gérée au niveau du responsive, l'image contient du text qui ne peut pas être analysé par google et nuire au référencement</t>
+  </si>
+  <si>
+    <t>Le contenu des images ne peuvent pas être analysées par le moteurs de recherche et donc aucun référencement  si celui contient du texte. Une images mal adaptée peut ne pas fonctionner correctement lors du mode responsive et donc dégradation l'utilisation du site et l'accessibilité du site, l'utilisation des balises alt et title doivent contenir des informations clair et concise sur l'image</t>
+  </si>
+  <si>
+    <t>Faire attention au format de l'image, celle-ci ne doit pas être trop volumineuse. Utiliser les balises alt et title pour données une description claire de l'image. Si l'image contient du text et que celui-ci doit être référencé, il faut mieux qu'il soit directement saisie dans la page</t>
+  </si>
+  <si>
+    <t>Remplacer l'image par du text. Bien renseigner les balises alt et title sur le contenu de l'image</t>
+  </si>
+  <si>
+    <t>https://www.anthedesign.fr/referencement/seo-comment-optimiser-le-referencement-des-images/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -87,15 +268,55 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="2"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,6 +327,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor rgb="FF7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -125,19 +352,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -351,165 +605,348 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:AA1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
-    <col min="7" max="26" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="52.77734375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="59.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="27" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="60" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="60" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="45" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="60" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="105" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="105" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1478,8 +1915,15 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" display="https://optimiz.me/la-balise-meta-keywords/" xr:uid="{5EB3D2F0-DCBC-4A8D-BACA-3F94FE7EDD20}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -1,31 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\lachouette\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projet\lachouette\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFF9C72-143D-4BD8-BDA5-6FC5386E198B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5AD86EC-5CD4-44E0-A1C5-7F463E3448AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgajbA1sRpj4h647px0Becg4xhqcQ=="/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
   <si>
     <t>Catégorie</t>
   </si>
@@ -97,9 +93,6 @@
     <t>index / 6</t>
   </si>
   <si>
-    <t>Le champ content n'est pas renseigné</t>
-  </si>
-  <si>
     <t>Faire un résume du site en 300 caractères maximum</t>
   </si>
   <si>
@@ -160,15 +153,9 @@
     <t>Le nom de la page n'est pas cohérent</t>
   </si>
   <si>
-    <t>Langue a défaut</t>
-  </si>
-  <si>
     <t>Remplacer défaut par Fr</t>
   </si>
   <si>
-    <t xml:space="preserve">Balise obsolète </t>
-  </si>
-  <si>
     <t>La balise est obsolète et n'a plus aucune utilité pour le référencement</t>
   </si>
   <si>
@@ -242,6 +229,45 @@
   </si>
   <si>
     <t>https://www.anthedesign.fr/referencement/seo-comment-optimiser-le-referencement-des-images/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lignes invisibles </t>
+  </si>
+  <si>
+    <t>La langue  est définit à défaut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balise "keywords" obsolète </t>
+  </si>
+  <si>
+    <t>Le champ content n'est pas renseigné pour la meta description</t>
+  </si>
+  <si>
+    <t>Lors du passage de la version pc à une version mobile, certains élément sortent du cadre, exemple pour des textes placés à l'aide d'une image.</t>
+  </si>
+  <si>
+    <t>Ecrire le texte directement dans la page.</t>
+  </si>
+  <si>
+    <t>Supprimer l'image et la remplacer directement par du text en utilisant les bonnes balises pour le formatage.</t>
+  </si>
+  <si>
+    <t>Lors du chargement des pages, des scripts sont également mis en mémoire mais ne sont jamais socilités dans la page. Cela peut ralentir le chargement des pages en fonction du débit de l'utilisateur.</t>
+  </si>
+  <si>
+    <t>Charger uniquement les modules utilisés.</t>
+  </si>
+  <si>
+    <t>Supprimer les lignes qui chargent les modules non utilités</t>
+  </si>
+  <si>
+    <t>Certaines lignes ont une taille minuscule ou la police à la même couleur que le fond les rendants invisible. Cela nuis au référencement.</t>
+  </si>
+  <si>
+    <t>Pour un meilleur référence utiliser les méta correspondant ainsi que les bonnes pratiques de formatage de page.</t>
+  </si>
+  <si>
+    <t>Supprimer les lignes invisibles.</t>
   </si>
 </sst>
 </file>
@@ -607,9 +633,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -670,10 +696,10 @@
         <v>15</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>18</v>
@@ -682,7 +708,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>20</v>
@@ -696,90 +722,90 @@
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="60" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="60" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="7" t="s">
+    </row>
+    <row r="6" spans="1:27" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" ht="45" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="60" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -788,107 +814,129 @@
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="45" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" ht="105" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="C8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="105" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="G10" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="45" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="60" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="D13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="6" t="s">
@@ -896,8 +944,22 @@
       </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F15" s="5"/>
+    <row r="15" spans="1:27" ht="45" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F16" s="5"/>
@@ -913,30 +975,30 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -5,23 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projet\lachouette\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\lachouette\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5AD86EC-5CD4-44E0-A1C5-7F463E3448AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB86FA2-DC3A-4B7A-ABA6-6F1CCD18A009}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
   <si>
     <t>Catégorie</t>
   </si>
@@ -47,22 +46,13 @@
     <t>SEO</t>
   </si>
   <si>
-    <t>class non existante</t>
-  </si>
-  <si>
     <t>problème de responsive</t>
   </si>
   <si>
     <t>Pas de titre de page</t>
   </si>
   <si>
-    <t>Supprimer les doublons et les lignes invisibles</t>
-  </si>
-  <si>
     <t>ajout de script non util</t>
-  </si>
-  <si>
-    <t>Liens non fonctionnels</t>
   </si>
   <si>
     <t>Emplacement</t>
@@ -135,9 +125,6 @@
     <t>index / 40 - 42</t>
   </si>
   <si>
-    <t>La duplication de ligne et les lignes (invisibles) finissent par être détectées par le robot et de nuire au référencement</t>
-  </si>
-  <si>
     <t>https://www.matthieu-tranvan.fr/referencement-naturel/checklist-seo-25-bonnes-pratiques-on-site-pour-renforcer-votre-referencement-naturel.html</t>
   </si>
   <si>
@@ -186,24 +173,6 @@
     <t>Renomer la page et les liens en contact.html</t>
   </si>
   <si>
-    <t>https://sitechecker.pro/fr/</t>
-  </si>
-  <si>
-    <t>https://neilpatel.com/fr/analyseur-seo/</t>
-  </si>
-  <si>
-    <t>https://search.google.com/search-console/about?hl=fr</t>
-  </si>
-  <si>
-    <t>https://website.grader.com/fr/</t>
-  </si>
-  <si>
-    <t>https://www.seo.fr/outils-seo/screaming-frog</t>
-  </si>
-  <si>
-    <t>crawler</t>
-  </si>
-  <si>
     <t>ordre et utilisation des balises hn non respecté</t>
   </si>
   <si>
@@ -252,22 +221,49 @@
     <t>Supprimer l'image et la remplacer directement par du text en utilisant les bonnes balises pour le formatage.</t>
   </si>
   <si>
-    <t>Lors du chargement des pages, des scripts sont également mis en mémoire mais ne sont jamais socilités dans la page. Cela peut ralentir le chargement des pages en fonction du débit de l'utilisateur.</t>
-  </si>
-  <si>
     <t>Charger uniquement les modules utilisés.</t>
   </si>
   <si>
     <t>Supprimer les lignes qui chargent les modules non utilités</t>
   </si>
   <si>
-    <t>Certaines lignes ont une taille minuscule ou la police à la même couleur que le fond les rendants invisible. Cela nuis au référencement.</t>
-  </si>
-  <si>
     <t>Pour un meilleur référence utiliser les méta correspondant ainsi que les bonnes pratiques de formatage de page.</t>
   </si>
   <si>
     <t>Supprimer les lignes invisibles.</t>
+  </si>
+  <si>
+    <t>La duplication de lignes finissent par être détectées par le robot et de nuire au référencement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supprimer les doublons </t>
+  </si>
+  <si>
+    <t>Certaines lignes ont une taille minuscule ou la police à la même couleur que le fond les rendants invisibles. Cela nuit au référencement.</t>
+  </si>
+  <si>
+    <t>https://www.powertrafic.fr/texte-cache-seo/</t>
+  </si>
+  <si>
+    <t>Lors du chargement des pages, des scripts sont également mis en mémoire mais ne sont jamais socilités dans la page. Cela peut ralentir le chargement des pages en fonction du débit de l'utilisateur. Un chargement trop long peut également nuire au référencement.</t>
+  </si>
+  <si>
+    <t>https://www.octopulse.io/seo-guide/performance</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/search/docs/beginner/seo-starter-guide?hl=fr#use-links-wisely</t>
+  </si>
+  <si>
+    <t>Supprimer les liens non fonctionnels ou les rendrent plus parlant pour l'utilisateur ou le robot.</t>
+  </si>
+  <si>
+    <t>Un grand nombre de liens non fonctionnels ou ne permet pas de comprendre de quoi traite la page.</t>
+  </si>
+  <si>
+    <t>Avoir des liens fonctionnels et permet de décrire brièvrement le contenu de la page.</t>
+  </si>
+  <si>
+    <t>Grand nombre de liens et ou non fonctionnels</t>
   </si>
 </sst>
 </file>
@@ -382,7 +378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -415,6 +411,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -631,11 +628,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA1004"/>
+  <dimension ref="A1:AA1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -650,7 +647,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -693,119 +690,119 @@
     </row>
     <row r="2" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="F6" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -814,152 +811,163 @@
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="105" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="45" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="D11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" ht="45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="75" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>9</v>
+        <v>36</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="45" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>74</v>
-      </c>
     </row>
-    <row r="13" spans="1:27" ht="60" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="4" t="s">
+    <row r="14" spans="1:27" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="C14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>78</v>
-      </c>
     </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:27" ht="45" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>81</v>
-      </c>
+    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F16" s="5"/>
@@ -968,39 +976,16 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F18" s="5"/>
+      <c r="A18" s="14"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F19" s="5"/>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="6"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1979,8 +1964,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1" display="https://optimiz.me/la-balise-meta-keywords/" xr:uid="{5EB3D2F0-DCBC-4A8D-BACA-3F94FE7EDD20}"/>
